--- a/biology/Écologie/Population_(écologie)/Population_(écologie).xlsx
+++ b/biology/Écologie/Population_(écologie)/Population_(écologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Population_(%C3%A9cologie)</t>
+          <t>Population_(écologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En écologie fondamentale, et plus particulièrement en biologie des populations, ainsi qu'en génétique des populations, une population désigne l'ensemble des individus d'une même espèce qui occupe simultanément le même milieu. 
 Une population est ainsi un ensemble monospécifique suivant le principe de Hardy-Weinberg qui établit que tous les croisements sont équiprobables, on parle de panmixie.
